--- a/doc/Projektmanagement/AP Beschreibung Vorlage.xlsx
+++ b/doc/Projektmanagement/AP Beschreibung Vorlage.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8beaa044454f4ca7/Studium/SS18/Projektmanagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmieren\Projekt_SS108\Projekt-SS18\doc\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,26 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Arbeitspaket Beschreibung</t>
   </si>
   <si>
-    <t>AP-Nr:</t>
-  </si>
-  <si>
-    <t>AP-Name:</t>
-  </si>
-  <si>
-    <t>Projektnr.:</t>
-  </si>
-  <si>
     <t>Projektphase</t>
   </si>
   <si>
-    <t>z.B PLANUNG</t>
-  </si>
-  <si>
     <t>Teilaufgabe:</t>
   </si>
   <si>
@@ -119,10 +107,28 @@
     <t>AP Schnittstellen:</t>
   </si>
   <si>
-    <t>Projektname:</t>
-  </si>
-  <si>
     <t># h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-Name: </t>
+  </si>
+  <si>
+    <t>Projektname: Anperi</t>
+  </si>
+  <si>
+    <t>Projektnr.: 001</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>z.B Planung</t>
+  </si>
+  <si>
+    <t>Jannes Peters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-Nr: </t>
   </si>
 </sst>
 </file>
@@ -299,31 +305,31 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,10 +644,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
@@ -650,162 +656,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/doc/Projektmanagement/AP Beschreibung Vorlage.xlsx
+++ b/doc/Projektmanagement/AP Beschreibung Vorlage.xlsx
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -299,11 +299,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -319,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -326,7 +336,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -641,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -655,15 +665,15 @@
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -676,12 +686,13 @@
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -690,8 +701,9 @@
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -703,7 +715,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -713,7 +725,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -723,7 +735,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -731,67 +743,67 @@
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -805,7 +817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
